--- a/datamining/final_data/tfidf1963_nltk.xlsx
+++ b/datamining/final_data/tfidf1963_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FO38"/>
+  <dimension ref="A1:EN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,825 +462,690 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>communitys</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>affective</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>attributes</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>best</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>bring</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>dimensions</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>out</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>processes</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>participate</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>academic-achievement</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>curriculums</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>enrolled</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>separate</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>cradles</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>eminence</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>kind</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>want</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>ethnic-origin</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>concept</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>preschool</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>years</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>purposeful</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>preschool-children</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>educators</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>nursery-school</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>planning</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>observations</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>encouraging</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>reluctantly</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>gallagher</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>jj</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>cj</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>hunter</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>woolcock</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>curiosity</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>encourage</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>mothering</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>suggestions</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>achievements</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>competitions</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>consecutive</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>earlier</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>endeavors</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>extension</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>fair</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>often</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>sisters</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>three</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>win</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>phenomena</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>psychic</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>choices</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>junior-high</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>pupils</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>creative-thinking</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>teacher-effectiveness</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>preschool-child</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>read</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>taught</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>cause</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>deeper</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>experienced</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>greater</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>suffering</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>bright</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>parental</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>responsibility</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>helping</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>music</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>discovering</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>musical</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>archbishop</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>boys</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>discussing</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>exciting</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>musically</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>opportunities</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>provides</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>public-school</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>unusual</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>interlochen-arts-academy</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>less</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>national-music-camp</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>genius</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>inspiration</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>perspiration</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>7th</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>preparatory</t>
         </is>
@@ -1297,25 +1162,25 @@
         <v>2340</v>
       </c>
       <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.36</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.32</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="H2" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1717,87 +1582,6 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1596,7 @@
         <v>2341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1824,40 +1608,40 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="I3" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2232,87 +2016,6 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2339,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2357,55 +2060,55 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="T4" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="U4" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="V4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2747,87 +2450,6 @@
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2896,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2923,25 +2545,25 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -3262,87 +2884,6 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3426,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -3441,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -3459,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3777,87 +3318,6 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3893,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3908,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3938,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -3947,25 +3407,25 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
@@ -3980,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4292,87 +3752,6 @@
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4399,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4483,16 +3862,16 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -4516,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
@@ -4807,87 +4186,6 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4914,16 +4212,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -4938,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -4968,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -5001,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -5322,87 +4620,6 @@
         <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5462,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -5471,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -5495,16 +4712,16 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -5525,16 +4742,16 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5558,25 +4775,25 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -5837,87 +5054,6 @@
         <v>0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5947,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5965,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -5998,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6031,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -6052,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -6094,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
         <v>0</v>
@@ -6352,87 +5488,6 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6459,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -6519,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -6528,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -6552,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
@@ -6570,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -6612,16 +5667,16 @@
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6867,87 +5922,6 @@
         <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6974,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7016,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -7046,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -7094,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7139,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7382,87 +6356,6 @@
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7612,13 +6505,13 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -7657,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -7897,87 +6790,6 @@
         <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8013,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8025,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -8136,10 +6948,10 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
@@ -8181,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0</v>
@@ -8412,87 +7224,6 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES15" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8522,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -8540,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -8588,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -8657,19 +7388,19 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -8702,19 +7433,19 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -8927,87 +7658,6 @@
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9043,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9058,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9166,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BA17" t="n">
         <v>0</v>
@@ -9187,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BH17" t="n">
         <v>0</v>
@@ -9211,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
@@ -9232,13 +7882,13 @@
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="BY17" t="n">
         <v>0</v>
@@ -9442,87 +8092,6 @@
         <v>0</v>
       </c>
       <c r="EN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9552,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9573,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9705,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -9756,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="CA18" t="n">
         <v>0</v>
@@ -9957,87 +8526,6 @@
         <v>0</v>
       </c>
       <c r="EN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES18" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10067,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -10106,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -10139,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -10148,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -10157,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -10181,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -10190,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
         <v>0</v>
@@ -10226,13 +8714,13 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BK19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BL19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BM19" t="n">
         <v>0</v>
@@ -10277,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
@@ -10472,87 +8960,6 @@
         <v>0</v>
       </c>
       <c r="EN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10582,13 +8989,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -10600,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -10630,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -10660,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AJ20" t="n">
         <v>0.27</v>
@@ -10672,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -10693,10 +9100,10 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -10705,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -10750,19 +9157,19 @@
         <v>0</v>
       </c>
       <c r="BM20" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BN20" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="BO20" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BP20" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BR20" t="n">
         <v>0</v>
@@ -10801,19 +9208,19 @@
         <v>0</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="CI20" t="n">
         <v>0</v>
@@ -10987,87 +9394,6 @@
         <v>0</v>
       </c>
       <c r="EN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES20" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11103,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -11118,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -11226,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="BA21" t="n">
         <v>0</v>
@@ -11271,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
@@ -11502,87 +9828,6 @@
         <v>0</v>
       </c>
       <c r="EN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11612,13 +9857,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -11630,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -11642,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -11666,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -11681,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -11699,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -11795,19 +10040,19 @@
         <v>0</v>
       </c>
       <c r="BR22" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BS22" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BT22" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BU22" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BV22" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -11846,19 +10091,19 @@
         <v>0</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CN22" t="n">
         <v>0</v>
@@ -12017,87 +10262,6 @@
         <v>0</v>
       </c>
       <c r="EN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES22" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12169,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -12202,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -12250,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AY23" t="n">
         <v>0</v>
@@ -12295,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="n">
         <v>0</v>
@@ -12325,46 +10489,46 @@
         <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BX23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BY23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CA23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CB23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CC23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CD23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CE23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CF23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
@@ -12376,52 +10540,52 @@
         <v>0</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CS23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CT23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CU23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DC23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="DD23" t="n">
         <v>0</v>
@@ -12532,87 +10696,6 @@
         <v>0</v>
       </c>
       <c r="EN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES23" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12696,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -12711,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -12729,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -12882,10 +10965,10 @@
         <v>0</v>
       </c>
       <c r="CK24" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -12939,10 +11022,10 @@
         <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="n">
         <v>0</v>
@@ -13047,87 +11130,6 @@
         <v>0</v>
       </c>
       <c r="EN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES24" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -13163,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -13178,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -13403,22 +11405,22 @@
         <v>0</v>
       </c>
       <c r="CM25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CR25" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CS25" t="n">
         <v>0</v>
@@ -13460,22 +11462,22 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DG25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DL25" t="n">
         <v>0</v>
@@ -13562,87 +11564,6 @@
         <v>0</v>
       </c>
       <c r="EN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13738,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -13762,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
@@ -13795,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AY26" t="n">
         <v>0</v>
@@ -13936,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="CS26" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CT26" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="CU26" t="n">
         <v>0</v>
@@ -13993,10 +11914,10 @@
         <v>0</v>
       </c>
       <c r="DL26" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="DM26" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="DN26" t="n">
         <v>0</v>
@@ -14077,87 +11998,6 @@
         <v>0</v>
       </c>
       <c r="EN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES26" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14187,13 +12027,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -14208,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -14217,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -14457,13 +12297,13 @@
         <v>0</v>
       </c>
       <c r="CU27" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CV27" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="CW27" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CX27" t="n">
         <v>0</v>
@@ -14514,19 +12354,19 @@
         <v>0</v>
       </c>
       <c r="DN27" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DO27" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DP27" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DR27" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="DS27" t="n">
         <v>0</v>
@@ -14592,87 +12432,6 @@
         <v>0</v>
       </c>
       <c r="EN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES27" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14699,16 +12458,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -14723,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -14981,28 +12740,28 @@
         <v>0</v>
       </c>
       <c r="CX28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CY28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CZ28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DA28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DB28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DC28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DD28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DE28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DF28" t="n">
         <v>0</v>
@@ -15044,34 +12803,34 @@
         <v>0</v>
       </c>
       <c r="DS28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DT28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DU28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DV28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DW28" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="DX28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DY28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EA28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EC28" t="n">
         <v>0</v>
@@ -15107,87 +12866,6 @@
         <v>0</v>
       </c>
       <c r="EN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES28" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15217,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -15235,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -15520,16 +13198,16 @@
         <v>0</v>
       </c>
       <c r="DF29" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DG29" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="DH29" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DI29" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DJ29" t="n">
         <v>0</v>
@@ -15589,16 +13267,16 @@
         <v>0</v>
       </c>
       <c r="EC29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EE29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="EG29" t="n">
         <v>0</v>
@@ -15622,87 +13300,6 @@
         <v>0</v>
       </c>
       <c r="EN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES29" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16005,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="CV30" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CW30" t="n">
         <v>0</v>
@@ -16047,10 +13644,10 @@
         <v>0</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DK30" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DL30" t="n">
         <v>0</v>
@@ -16065,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="DP30" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="DQ30" t="n">
         <v>0</v>
@@ -16116,10 +13713,10 @@
         <v>0</v>
       </c>
       <c r="EG30" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EH30" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="EI30" t="n">
         <v>0</v>
@@ -16137,87 +13734,6 @@
         <v>0</v>
       </c>
       <c r="EN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES30" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16244,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -16298,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -16553,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="DG31" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DH31" t="n">
         <v>0</v>
@@ -16568,13 +14084,13 @@
         <v>0</v>
       </c>
       <c r="DL31" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DM31" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DN31" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DO31" t="n">
         <v>0</v>
@@ -16622,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="ED31" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EE31" t="n">
         <v>0</v>
@@ -16637,13 +14153,13 @@
         <v>0</v>
       </c>
       <c r="EI31" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="EK31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="EL31" t="n">
         <v>0</v>
@@ -16652,87 +14168,6 @@
         <v>0</v>
       </c>
       <c r="EN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES31" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16789,7 +14224,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -16807,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -17092,16 +14527,16 @@
         <v>0</v>
       </c>
       <c r="DO32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DP32" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DS32" t="n">
         <v>0</v>
@@ -17161,93 +14596,12 @@
         <v>0</v>
       </c>
       <c r="EL32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EM32" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="EN32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EO32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES32" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17283,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -17295,10 +14649,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -17325,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -17358,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -17610,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="DP33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DQ33" t="n">
         <v>0</v>
@@ -17619,19 +14973,19 @@
         <v>0</v>
       </c>
       <c r="DS33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DT33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DU33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DV33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DW33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DX33" t="n">
         <v>0</v>
@@ -17679,90 +15033,9 @@
         <v>0</v>
       </c>
       <c r="EM33" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="EN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="EQ33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ER33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ES33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ET33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EU33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EV33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17798,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -17810,10 +15083,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -17858,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -18149,19 +15422,19 @@
         <v>0</v>
       </c>
       <c r="DX34" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DY34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DZ34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EA34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EB34" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EC34" t="n">
         <v>0</v>
@@ -18197,87 +15470,6 @@
         <v>0</v>
       </c>
       <c r="EN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW34" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EX34" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EY34" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EZ34" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FA34" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18295,19 +15487,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -18316,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -18358,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -18376,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -18664,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="DX35" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DY35" t="n">
         <v>0</v>
@@ -18679,19 +15871,19 @@
         <v>0</v>
       </c>
       <c r="EC35" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="ED35" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EE35" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EF35" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EG35" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EH35" t="n">
         <v>0</v>
@@ -18712,87 +15904,6 @@
         <v>0</v>
       </c>
       <c r="EN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES35" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW35" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="EX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB35" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FC35" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FD35" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FE35" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FF35" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18891,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -19155,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="DP36" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="DQ36" t="n">
         <v>0</v>
@@ -19176,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="DW36" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DX36" t="n">
         <v>0</v>
@@ -19209,13 +16320,13 @@
         <v>0</v>
       </c>
       <c r="EH36" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EI36" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EJ36" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="EK36" t="n">
         <v>0</v>
@@ -19224,90 +16335,9 @@
         <v>0</v>
       </c>
       <c r="EM36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES36" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FH36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19334,10 +16364,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -19415,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
@@ -19448,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -19508,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="BN37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="BO37" t="n">
         <v>0</v>
@@ -19559,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CF37" t="n">
         <v>0</v>
@@ -19670,7 +16700,7 @@
         <v>0</v>
       </c>
       <c r="DP37" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="DQ37" t="n">
         <v>0</v>
@@ -19733,97 +16763,16 @@
         <v>0</v>
       </c>
       <c r="EK37" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EL37" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EM37" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="EN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES37" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FN37" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FO37" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38">
@@ -19852,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -19891,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -19921,10 +16870,10 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
@@ -20173,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="DL38" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="DM38" t="n">
         <v>0</v>
@@ -20242,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="EI38" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="EJ38" t="n">
         <v>0</v>
@@ -20257,87 +17206,6 @@
         <v>0</v>
       </c>
       <c r="EN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES38" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO38" t="n">
         <v>0</v>
       </c>
     </row>
